--- a/Document/CD2 - Group6/2. Agile-release-plan-Group6.xlsx
+++ b/Document/CD2 - Group6/2. Agile-release-plan-Group6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\Document\CD2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoangNghiep\Tai lieu\Nam3\CD_DD\Mobile-Themes-Group-6\Document\CD2 - Group6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="11">
         <v>43207</v>
@@ -859,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="11">
         <v>43207</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="11">
         <v>43207</v>
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="11">
         <v>43207</v>
@@ -952,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="11">
         <v>43207</v>
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="11">
         <v>43207</v>
